--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948960.5097560323</v>
+        <v>-951840.8379160353</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371385</v>
+        <v>10036405.55371384</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>178.1780239753316</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.09663067212179</v>
+        <v>356.2789089742632</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>201.089163843681</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.56351676970137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>197.575226796307</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.837139712982014</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>232.5099086433455</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.084701171351</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>78.40333552909871</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>80.67009812109023</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.9743785693928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.2972476431858</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>35.99073744299501</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.01241826977926</v>
+        <v>58.30672845062092</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081998</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561464</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>22.01943279780503</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>85.258877604297</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108389</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.04496336393062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.453989791954</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>67.18075159108389</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2533,7 +2533,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>102.8593153666994</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>15.09910835322218</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>16.09765778288736</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>80.56978887874813</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>186.3821020736959</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898984</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.23949080023</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.580931738755</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.580931738755</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>1107.315233132004</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>721.5269805337599</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>714.5814797845564</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.580931738755</v>
+        <v>576.3714747656866</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1970.153013000984</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>60.84918355064931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>60.84918355064931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1082.67330119093</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>713.7107842505179</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>713.7107842505179</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1469.273141255051</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.0282177315058</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="C10" t="n">
-        <v>280.0282177315058</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="D10" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1382702335955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1382702335955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315058</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q11" t="n">
         <v>4566.333620403613</v>
@@ -5115,31 +5115,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J12" t="n">
-        <v>198.8209117892279</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K12" t="n">
-        <v>198.8209117892279</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L12" t="n">
-        <v>689.5532446329793</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.571598885107</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.667562284443</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.3178666362255</v>
+        <v>784.1719286328732</v>
       </c>
       <c r="C13" t="n">
-        <v>616.3816837083186</v>
+        <v>615.2357457049663</v>
       </c>
       <c r="D13" t="n">
-        <v>466.2650442959829</v>
+        <v>465.1191062926306</v>
       </c>
       <c r="E13" t="n">
-        <v>318.3519507135898</v>
+        <v>317.2060127102375</v>
       </c>
       <c r="F13" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5230,19 +5230,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X13" t="n">
-        <v>1125.526309819387</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.9663314664652</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5276,25 +5276,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
         <v>4566.333620403613</v>
@@ -5315,13 +5315,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L15" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="M15" t="n">
-        <v>965.25639787016</v>
+        <v>1017.414477541616</v>
       </c>
       <c r="N15" t="n">
-        <v>1587.352361269496</v>
+        <v>1639.510440940952</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>2186.386915941146</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>957.5492919979874</v>
+        <v>906.255456106683</v>
       </c>
       <c r="C16" t="n">
-        <v>788.6131090700806</v>
+        <v>737.3192731787761</v>
       </c>
       <c r="D16" t="n">
-        <v>638.4964696577448</v>
+        <v>587.2026337664404</v>
       </c>
       <c r="E16" t="n">
-        <v>490.5833760753517</v>
+        <v>439.2895401840473</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6934285774413</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5461,25 +5461,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="Y16" t="n">
-        <v>1125.526309819387</v>
+        <v>1087.903920936923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,10 +5501,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5513,10 +5513,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5540,25 +5540,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5806809953583</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M18" t="n">
-        <v>1154.278642310989</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N18" t="n">
-        <v>1776.374605710325</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O18" t="n">
         <v>2323.25108071052</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.5089153771639</v>
+        <v>868.8780297767507</v>
       </c>
       <c r="C19" t="n">
-        <v>782.572732449257</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="D19" t="n">
-        <v>632.4560930369213</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E19" t="n">
-        <v>632.4560930369213</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F19" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5683,40 +5683,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931022</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782257</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335692</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294193</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.378994425729</v>
+        <v>2370.516814032037</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.700212140111</v>
+        <v>2150.838031746419</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.623998454838</v>
+        <v>1861.761818061146</v>
       </c>
       <c r="V19" t="n">
-        <v>1581.939510248951</v>
+        <v>1607.077329855259</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.939510248951</v>
+        <v>1317.660159818298</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.949959350934</v>
+        <v>1089.670608920281</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.157380207404</v>
+        <v>868.8780297767507</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5738,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.344223650718</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383978</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151128</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610263</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612961</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J21" t="n">
-        <v>196.4253412615927</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K21" t="n">
-        <v>526.9340838249515</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9340838249515</v>
+        <v>526.9340838249593</v>
       </c>
       <c r="M21" t="n">
-        <v>1118.952438077079</v>
+        <v>1118.952438077085</v>
       </c>
       <c r="N21" t="n">
-        <v>1741.048401476415</v>
+        <v>1741.048401476419</v>
       </c>
       <c r="O21" t="n">
-        <v>2287.924876476609</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="P21" t="n">
-        <v>2287.924876476609</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q21" t="n">
-        <v>2518.486150461856</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>654.5023284669181</v>
       </c>
       <c r="C22" t="n">
-        <v>495.0957149476001</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9756365594213</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117233</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948564</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782253</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294189</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033119</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747501</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981938</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213624</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778323</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E23" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963567</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127631</v>
@@ -5996,43 +5996,43 @@
         <v>1462.49438794417</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234024</v>
+        <v>2234.298471234025</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151128</v>
+        <v>2971.583449151129</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610263</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297609</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>94.88738072612932</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779744</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413319</v>
+        <v>208.6365868072613</v>
       </c>
       <c r="L24" t="n">
-        <v>654.2270403990772</v>
+        <v>699.3689196510107</v>
       </c>
       <c r="M24" t="n">
-        <v>1246.245394651203</v>
+        <v>699.3689196510107</v>
       </c>
       <c r="N24" t="n">
-        <v>1868.341358050537</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="O24" t="n">
         <v>1868.341358050537</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.0911747218005</v>
+        <v>866.6744839468082</v>
       </c>
       <c r="C25" t="n">
-        <v>613.1549917938936</v>
+        <v>697.7383010189013</v>
       </c>
       <c r="D25" t="n">
-        <v>613.1549917938936</v>
+        <v>697.7383010189013</v>
       </c>
       <c r="E25" t="n">
-        <v>465.2418982115005</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135901</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135901</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6172,25 +6172,25 @@
         <v>2361.553154294189</v>
       </c>
       <c r="S25" t="n">
-        <v>2361.553154294189</v>
+        <v>2178.382964033119</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.87437200857</v>
+        <v>1958.704181747501</v>
       </c>
       <c r="U25" t="n">
-        <v>1852.798158323297</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V25" t="n">
-        <v>1598.11367011741</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="W25" t="n">
-        <v>1308.69650008045</v>
+        <v>1380.210798025267</v>
       </c>
       <c r="X25" t="n">
-        <v>1080.706949182432</v>
+        <v>1152.221247127249</v>
       </c>
       <c r="Y25" t="n">
-        <v>859.9143700389021</v>
+        <v>1048.322948777048</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1097.964082041489</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>929.0278991135817</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>778.911259701246</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>630.9981661188529</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.1082186209425</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>316.9121193358224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.2002881780205</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.405126015258</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>1279.612546871728</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,25 +6938,25 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,16 +7187,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954153</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311322</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
         <v>2129.438138565707</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.31264782908892</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>51.3126478291108</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.31264782911092</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19.8012666515221</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>235.6061460454634</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>29.95902968179035</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.19271039829678</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>64.75094990184101</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.61027478270199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.53473253875146</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>109.4303105799362</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>165.3260700886797</v>
+        <v>123.031759907838</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>157.8125473841323</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>63.35659541391536</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.7870168180067</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.7253379853954</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>152.1477127454056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>164.9286282187572</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6960474398174057</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>100.1408962628951</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169831.6691086303</v>
+        <v>169831.6691086304</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26323,16 +26323,16 @@
         <v>201670.7442796397</v>
       </c>
       <c r="F2" t="n">
+        <v>201670.7442796398</v>
+      </c>
+      <c r="G2" t="n">
+        <v>201670.7442796398</v>
+      </c>
+      <c r="H2" t="n">
         <v>201670.7442796397</v>
       </c>
-      <c r="G2" t="n">
-        <v>201670.7442796397</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>201670.7442796398</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201670.7442796397</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
@@ -26344,10 +26344,10 @@
         <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.293060786677718e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.242973549209031e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792254</v>
+        <v>183669.0093792256</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901372</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869546</v>
+        <v>120178.1964869547</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,34 +26424,34 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855087</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855109</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="G4" t="n">
         <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855392</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855394</v>
+        <v>5781.971894855406</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670463</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="M4" t="n">
-        <v>13058.45186476392</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
         <v>13058.4518647639</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623173.4846562782</v>
+        <v>-623527.7723898527</v>
       </c>
       <c r="C6" t="n">
-        <v>-78663.14152507018</v>
+        <v>-78663.14152507015</v>
       </c>
       <c r="D6" t="n">
-        <v>-78663.14152507021</v>
+        <v>-78663.14152507015</v>
       </c>
       <c r="E6" t="n">
-        <v>-841550.9325269661</v>
+        <v>-841586.8295088304</v>
       </c>
       <c r="F6" t="n">
-        <v>94958.73292754608</v>
+        <v>94922.8359456818</v>
       </c>
       <c r="G6" t="n">
-        <v>94958.73292754625</v>
+        <v>94922.83594568183</v>
       </c>
       <c r="H6" t="n">
-        <v>94958.73292754611</v>
+        <v>94922.83594568454</v>
       </c>
       <c r="I6" t="n">
-        <v>94958.73292754879</v>
+        <v>94922.83594568165</v>
       </c>
       <c r="J6" t="n">
-        <v>-88072.48188230139</v>
+        <v>-88107.21980773722</v>
       </c>
       <c r="K6" t="n">
-        <v>95596.52749692394</v>
+        <v>95561.78957148831</v>
       </c>
       <c r="L6" t="n">
-        <v>69610.15675376001</v>
+        <v>69610.15675376006</v>
       </c>
       <c r="M6" t="n">
-        <v>-35269.33664274558</v>
+        <v>-35269.3366427453</v>
       </c>
       <c r="N6" t="n">
-        <v>89037.87474739151</v>
+        <v>89037.87474739179</v>
       </c>
       <c r="O6" t="n">
+        <v>89037.87474739162</v>
+      </c>
+      <c r="P6" t="n">
         <v>89037.87474739159</v>
-      </c>
-      <c r="P6" t="n">
-        <v>89037.87474739162</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26753,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716382</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.368975582112339e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.68504063244544e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625292013</v>
+        <v>9.93445162529224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591162</v>
+        <v>673.8912089591163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>362.9325750119585</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.1413079839318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.1703248937792</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>151.665741921106</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5839083099492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>149.4204614289163</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>12.36361918630681</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>139.3946264308364</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>77.76755331269644</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-2.686562083908939e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>232.8705192299201</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,10 +32069,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>688.4969704424166</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>236.5380039147982</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,25 +32309,25 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>717.5865200994233</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>188.4147547211823</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.45946150237741</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122266</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874051</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083041</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364238</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529328</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229579</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086925</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687501</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148589</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987153</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854254</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901927</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540897</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J21" t="n">
-        <v>229.4012231671345</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>425.8258154838993</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504279</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927616</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426185</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273328</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900878</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640608</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265011</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416864</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851316</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>100.5719078530528</v>
       </c>
       <c r="J24" t="n">
-        <v>275.977002173581</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684821</v>
+        <v>252.7396269350984</v>
       </c>
       <c r="L24" t="n">
-        <v>220.5573447876977</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504279</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927616</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426185</v>
       </c>
       <c r="P24" t="n">
         <v>557.7961431982437</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2467565146294</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M36" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>471.1883883160951</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435301</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>418.5673812695001</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
-        <v>106.0328925632534</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>546.3629365203982</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>102.563596500468</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>575.4524861774049</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>45.8185102767379</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209133</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
         <v>370.7297545606359</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380604</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020553</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554779</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870058</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404094</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853052822</v>
       </c>
       <c r="J21" t="n">
-        <v>102.5635965004678</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>287.2714357040251</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284097</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094283</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.400479798174</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R21" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970688</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066001</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642049</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883417</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606349</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044793</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J23" t="n">
         <v>282.3190661607188</v>
@@ -36364,7 +36364,7 @@
         <v>625.7775560664365</v>
       </c>
       <c r="M23" t="n">
-        <v>779.6000841311662</v>
+        <v>779.6000841311671</v>
       </c>
       <c r="N23" t="n">
         <v>744.7323009263671</v>
@@ -36434,22 +36434,22 @@
         <v>1.049527853052822</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069143</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710462</v>
+        <v>114.8981879607394</v>
       </c>
       <c r="L24" t="n">
-        <v>82.00296500782348</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284097</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094283</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>552.400479798174</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839135</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>108.4053175402704</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M36" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>328.5921438716507</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
